--- a/biology/Zoologie/Falcileptoneta_ogatai/Falcileptoneta_ogatai.xlsx
+++ b/biology/Zoologie/Falcileptoneta_ogatai/Falcileptoneta_ogatai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Falcileptoneta ogatai est une espèce d'araignées aranéomorphes de la famille des Leptonetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Falcileptoneta ogatai est une espèce d'araignées aranéomorphes de la famille des Leptonetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Honshū au Japon[1]. Elle se rencontre à Toyohashi et à Shinshiro dans la préfecture d'Aichi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Honshū au Japon. Elle se rencontre à Toyohashi et à Shinshiro dans la préfecture d'Aichi.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 1,73 mm et la femelle paratype 1,63 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 1,73 mm et la femelle paratype 1,63 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Kiyoto Ogata[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Kiyoto Ogata.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Irie &amp; Ono, 2007 : Two new species of the genus Falcileptoneta (Arachnida, Araneae, Leptonetidae) collected from Chûbu District, Honshu, Japan. Bulletin of the National Museum of Nature and Science, Tokyo, sér. A, vol. 33, p. 175-180 (texte original).</t>
         </is>
